--- a/ControlTask2_MQA_Ivan_Savenko/TestCases.xlsx
+++ b/ControlTask2_MQA_Ivan_Savenko/TestCases.xlsx
@@ -370,9 +370,6 @@
     <t>Переход на главную страницу сайта.</t>
   </si>
   <si>
-    <t>1. Нажать на кнопку-иконку "Etsy" в шапке сайта.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. Открыть сайт </t>
     </r>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>1. Нажать на кнопку "Колокольчик" в шапке сайта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на кнопку-иконку "Etsy" в шапке сайта. </t>
   </si>
 </sst>
 </file>
@@ -788,6 +788,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1052,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>6</v>
@@ -1085,13 +1153,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>58</v>
@@ -1134,7 +1202,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>35</v>
@@ -1174,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>49</v>
@@ -1220,7 +1288,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>38</v>
@@ -1243,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="8"/>
     </row>
